--- a/客户要求/附件1：百濟美工作業現況vs開發自動化評估對比-20250723.xlsx
+++ b/客户要求/附件1：百濟美工作業現況vs開發自動化評估對比-20250723.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tiandiyiqi/Documents/Prepress/LabelMedix/客户要求/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B7C0F2-0FA9-9E4E-9456-B64DDF203A1E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E07FEC-FBC0-144E-843C-38BE7C22D21E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20460" xr2:uid="{44561D80-78CF-4B21-A9EC-1CC91EC5D827}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="77">
   <si>
     <t>根据客户提供样品计算每页尺寸及粘胶区域</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -339,10 +339,6 @@
   </si>
   <si>
     <t>增加一个选项，是否为缠绕标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待开发，先放在右下角</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -668,7 +664,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -741,6 +737,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -753,18 +830,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -795,79 +860,13 @@
     <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1210,8 +1209,8 @@
   </sheetPr>
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -1231,60 +1230,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="48" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
     </row>
     <row r="2" spans="1:13" ht="25" customHeight="1">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="45" t="s">
+      <c r="G2" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51" t="s">
+      <c r="I2" s="43"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="45" t="s">
         <v>25</v>
       </c>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="25" customHeight="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
       <c r="H3" s="15" t="s">
         <v>38</v>
       </c>
@@ -1294,11 +1293,11 @@
       <c r="J3" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="52"/>
+      <c r="K3" s="46"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="25" customHeight="1">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="34" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="2">
@@ -1307,7 +1306,7 @@
       <c r="C4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="57"/>
+      <c r="D4" s="24"/>
       <c r="E4" s="13" t="s">
         <v>14</v>
       </c>
@@ -1329,58 +1328,58 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="25" customHeight="1">
-      <c r="A5" s="42"/>
-      <c r="B5" s="28">
+      <c r="A5" s="35"/>
+      <c r="B5" s="34">
         <v>2</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="32">
+      <c r="G5" s="55">
         <v>10</v>
       </c>
-      <c r="H5" s="30" t="s">
+      <c r="H5" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="36"/>
-      <c r="J5" s="40">
+      <c r="I5" s="59"/>
+      <c r="J5" s="63">
         <v>10</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="K5" s="51" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1">
-      <c r="A6" s="42"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="25"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="52"/>
     </row>
     <row r="7" spans="1:13" ht="65" customHeight="1">
-      <c r="A7" s="42"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="2">
         <v>3</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="60" t="s">
+      <c r="D7" s="24" t="s">
         <v>72</v>
       </c>
       <c r="E7" s="13" t="s">
@@ -1406,14 +1405,14 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="25" customHeight="1">
-      <c r="A8" s="42"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="2">
         <v>4</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="57"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="13" t="s">
         <v>12</v>
       </c>
@@ -1435,14 +1434,14 @@
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:13" ht="25" customHeight="1">
-      <c r="A9" s="42"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="2">
         <v>5</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="57"/>
+      <c r="D9" s="24"/>
       <c r="E9" s="13" t="s">
         <v>12</v>
       </c>
@@ -1464,14 +1463,14 @@
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:13" ht="25" customHeight="1">
-      <c r="A10" s="42"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="2">
         <v>6</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="57"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="13" t="s">
         <v>11</v>
       </c>
@@ -1493,14 +1492,14 @@
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:13" ht="25" customHeight="1">
-      <c r="A11" s="42"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="2">
         <v>7</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="57"/>
+      <c r="D11" s="24"/>
       <c r="E11" s="13" t="s">
         <v>13</v>
       </c>
@@ -1524,16 +1523,14 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="25" customHeight="1">
-      <c r="A12" s="42"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="2">
         <v>8</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="60" t="s">
-        <v>74</v>
-      </c>
+      <c r="D12" s="67"/>
       <c r="E12" s="13" t="s">
         <v>11</v>
       </c>
@@ -1555,56 +1552,54 @@
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:13" ht="25" customHeight="1">
-      <c r="A13" s="42"/>
-      <c r="B13" s="28">
+      <c r="A13" s="35"/>
+      <c r="B13" s="34">
         <v>9</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="30" t="s">
+      <c r="D13" s="65"/>
+      <c r="E13" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="32">
+      <c r="G13" s="55">
         <v>40</v>
       </c>
-      <c r="H13" s="34" t="s">
+      <c r="H13" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="36"/>
-      <c r="J13" s="38">
+      <c r="I13" s="59"/>
+      <c r="J13" s="61">
         <v>40</v>
       </c>
-      <c r="K13" s="28"/>
+      <c r="K13" s="34"/>
     </row>
     <row r="14" spans="1:13" ht="25" customHeight="1">
-      <c r="A14" s="42"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="29"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="36"/>
     </row>
     <row r="15" spans="1:13" ht="51.75" customHeight="1">
-      <c r="A15" s="42"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="2">
         <v>10</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="57"/>
+      <c r="D15" s="24"/>
       <c r="E15" s="13" t="s">
         <v>11</v>
       </c>
@@ -1626,15 +1621,15 @@
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:13" ht="49.5" customHeight="1">
-      <c r="A16" s="42"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="2">
         <v>11</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="57" t="s">
-        <v>76</v>
+      <c r="D16" s="24" t="s">
+        <v>75</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>11</v>
@@ -1659,15 +1654,15 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="49.5" customHeight="1">
-      <c r="A17" s="42"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="2">
         <v>12</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="60" t="s">
-        <v>75</v>
+      <c r="D17" s="25" t="s">
+        <v>74</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>14</v>
@@ -1690,16 +1685,14 @@
       <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:11" ht="49.5" customHeight="1">
-      <c r="A18" s="42"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="2">
         <v>13</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="60" t="s">
-        <v>75</v>
-      </c>
+      <c r="D18" s="67"/>
       <c r="E18" s="13" t="s">
         <v>11</v>
       </c>
@@ -1721,16 +1714,14 @@
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11" ht="51.75" customHeight="1">
-      <c r="A19" s="42"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="2">
         <v>14</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="60" t="s">
-        <v>75</v>
-      </c>
+      <c r="D19" s="67"/>
       <c r="E19" s="13" t="s">
         <v>11</v>
       </c>
@@ -1752,16 +1743,14 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="49.5" customHeight="1">
-      <c r="A20" s="42"/>
+      <c r="A20" s="35"/>
       <c r="B20" s="2">
         <v>15</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="60" t="s">
-        <v>75</v>
-      </c>
+      <c r="D20" s="67"/>
       <c r="E20" s="13" t="s">
         <v>11</v>
       </c>
@@ -1783,16 +1772,14 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="25" customHeight="1">
-      <c r="A21" s="42"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="2">
         <v>16</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="60" t="s">
-        <v>75</v>
-      </c>
+      <c r="D21" s="67"/>
       <c r="E21" s="13" t="s">
         <v>11</v>
       </c>
@@ -1812,16 +1799,14 @@
       <c r="K21" s="3"/>
     </row>
     <row r="22" spans="1:11" ht="49.5" customHeight="1">
-      <c r="A22" s="42"/>
+      <c r="A22" s="35"/>
       <c r="B22" s="2">
         <v>17</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="60" t="s">
-        <v>75</v>
-      </c>
+      <c r="D22" s="67"/>
       <c r="E22" s="13" t="s">
         <v>11</v>
       </c>
@@ -1843,14 +1828,14 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="49.5" customHeight="1">
-      <c r="A23" s="42"/>
+      <c r="A23" s="35"/>
       <c r="B23" s="2">
         <v>18</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="57"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="13" t="s">
         <v>14</v>
       </c>
@@ -1870,16 +1855,14 @@
       <c r="K23" s="3"/>
     </row>
     <row r="24" spans="1:11" ht="25" customHeight="1">
-      <c r="A24" s="42"/>
+      <c r="A24" s="35"/>
       <c r="B24" s="23">
         <v>19</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="60" t="s">
-        <v>75</v>
-      </c>
+      <c r="D24" s="67"/>
       <c r="E24" s="13" t="s">
         <v>11</v>
       </c>
@@ -1901,15 +1884,15 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="49.5" customHeight="1">
-      <c r="A25" s="42"/>
+      <c r="A25" s="35"/>
       <c r="B25" s="23">
         <v>20</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="65" t="s">
-        <v>77</v>
+      <c r="D25" s="28" t="s">
+        <v>76</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>12</v>
@@ -1928,15 +1911,15 @@
       <c r="K25" s="3"/>
     </row>
     <row r="26" spans="1:11" ht="48.75" customHeight="1">
-      <c r="A26" s="42"/>
+      <c r="A26" s="35"/>
       <c r="B26" s="23">
         <v>21</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="66" t="s">
-        <v>75</v>
+      <c r="D26" s="29" t="s">
+        <v>74</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>11</v>
@@ -1955,15 +1938,15 @@
       <c r="K26" s="22"/>
     </row>
     <row r="27" spans="1:11" ht="48.75" customHeight="1">
-      <c r="A27" s="42"/>
+      <c r="A27" s="35"/>
       <c r="B27" s="23">
         <v>22</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="66" t="s">
-        <v>75</v>
+      <c r="D27" s="29" t="s">
+        <v>74</v>
       </c>
       <c r="E27" s="13" t="s">
         <v>12</v>
@@ -1982,16 +1965,14 @@
       <c r="K27" s="22"/>
     </row>
     <row r="28" spans="1:11" ht="48.75" customHeight="1">
-      <c r="A28" s="42"/>
+      <c r="A28" s="35"/>
       <c r="B28" s="23">
         <v>23</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="60" t="s">
-        <v>75</v>
-      </c>
+      <c r="D28" s="67"/>
       <c r="E28" s="13" t="s">
         <v>14</v>
       </c>
@@ -2011,15 +1992,15 @@
       <c r="K28" s="22"/>
     </row>
     <row r="29" spans="1:11" ht="48.75" customHeight="1">
-      <c r="A29" s="29"/>
+      <c r="A29" s="36"/>
       <c r="B29" s="23">
         <v>24</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="60" t="s">
-        <v>75</v>
+      <c r="D29" s="67" t="s">
+        <v>74</v>
       </c>
       <c r="E29" s="13" t="s">
         <v>12</v>
@@ -2042,7 +2023,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="27" customHeight="1">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="34" t="s">
         <v>31</v>
       </c>
       <c r="B30" s="23">
@@ -2051,7 +2032,7 @@
       <c r="C30" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="63"/>
+      <c r="D30" s="26"/>
       <c r="E30" s="13" t="s">
         <v>12</v>
       </c>
@@ -2069,15 +2050,15 @@
       <c r="K30" s="22"/>
     </row>
     <row r="31" spans="1:11" ht="25" customHeight="1">
-      <c r="A31" s="42"/>
+      <c r="A31" s="35"/>
       <c r="B31" s="23">
         <v>26</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="60" t="s">
-        <v>75</v>
+      <c r="D31" s="25" t="s">
+        <v>74</v>
       </c>
       <c r="E31" s="13" t="s">
         <v>11</v>
@@ -2100,15 +2081,15 @@
       <c r="K31" s="3"/>
     </row>
     <row r="32" spans="1:11" ht="25" customHeight="1">
-      <c r="A32" s="42"/>
+      <c r="A32" s="35"/>
       <c r="B32" s="23">
         <v>27</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="60" t="s">
-        <v>75</v>
+      <c r="D32" s="25" t="s">
+        <v>74</v>
       </c>
       <c r="E32" s="13" t="s">
         <v>12</v>
@@ -2131,15 +2112,15 @@
       <c r="K32" s="3"/>
     </row>
     <row r="33" spans="1:11" ht="25" customHeight="1">
-      <c r="A33" s="42"/>
+      <c r="A33" s="35"/>
       <c r="B33" s="23">
         <v>28</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="60" t="s">
-        <v>75</v>
+      <c r="D33" s="25" t="s">
+        <v>74</v>
       </c>
       <c r="E33" s="13" t="s">
         <v>12</v>
@@ -2162,14 +2143,14 @@
       <c r="K33" s="3"/>
     </row>
     <row r="34" spans="1:11" ht="25" customHeight="1">
-      <c r="A34" s="42"/>
+      <c r="A34" s="35"/>
       <c r="B34" s="23">
         <v>29</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="63"/>
+      <c r="D34" s="26"/>
       <c r="E34" s="2" t="s">
         <v>11</v>
       </c>
@@ -2189,14 +2170,14 @@
       <c r="K34" s="3"/>
     </row>
     <row r="35" spans="1:11" ht="25" customHeight="1">
-      <c r="A35" s="42"/>
+      <c r="A35" s="35"/>
       <c r="B35" s="23">
         <v>30</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="63"/>
+      <c r="D35" s="26"/>
       <c r="E35" s="2" t="s">
         <v>14</v>
       </c>
@@ -2216,14 +2197,14 @@
       <c r="K35" s="3"/>
     </row>
     <row r="36" spans="1:11" ht="25" customHeight="1">
-      <c r="A36" s="42"/>
+      <c r="A36" s="35"/>
       <c r="B36" s="23">
         <v>31</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="64"/>
+      <c r="D36" s="27"/>
       <c r="E36" s="2" t="s">
         <v>12</v>
       </c>
@@ -2243,14 +2224,14 @@
       <c r="K36" s="3"/>
     </row>
     <row r="37" spans="1:11" ht="25" customHeight="1">
-      <c r="A37" s="29"/>
+      <c r="A37" s="36"/>
       <c r="B37" s="23">
         <v>32</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="63"/>
+      <c r="D37" s="26"/>
       <c r="E37" s="2" t="s">
         <v>12</v>
       </c>
@@ -2270,7 +2251,7 @@
       <c r="K37" s="3"/>
     </row>
     <row r="38" spans="1:11" ht="25" customHeight="1">
-      <c r="A38" s="44" t="s">
+      <c r="A38" s="38" t="s">
         <v>32</v>
       </c>
       <c r="B38" s="23">
@@ -2279,7 +2260,7 @@
       <c r="C38" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="63"/>
+      <c r="D38" s="26"/>
       <c r="E38" s="2" t="s">
         <v>11</v>
       </c>
@@ -2299,14 +2280,14 @@
       <c r="K38" s="3"/>
     </row>
     <row r="39" spans="1:11" ht="25" customHeight="1">
-      <c r="A39" s="44"/>
+      <c r="A39" s="38"/>
       <c r="B39" s="23">
         <v>34</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="63"/>
+      <c r="D39" s="26"/>
       <c r="E39" s="2" t="s">
         <v>11</v>
       </c>
@@ -2326,14 +2307,14 @@
       <c r="K39" s="3"/>
     </row>
     <row r="40" spans="1:11" ht="25" customHeight="1">
-      <c r="A40" s="44"/>
+      <c r="A40" s="38"/>
       <c r="B40" s="23">
         <v>35</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="63"/>
+      <c r="D40" s="26"/>
       <c r="E40" s="2" t="s">
         <v>12</v>
       </c>
@@ -2353,14 +2334,14 @@
       <c r="K40" s="3"/>
     </row>
     <row r="41" spans="1:11" ht="43.5" customHeight="1">
-      <c r="A41" s="44"/>
+      <c r="A41" s="38"/>
       <c r="B41" s="23">
         <v>36</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D41" s="63"/>
+      <c r="D41" s="26"/>
       <c r="E41" s="2" t="s">
         <v>14</v>
       </c>
@@ -2378,7 +2359,7 @@
       <c r="K41" s="3"/>
     </row>
     <row r="42" spans="1:11" ht="25" customHeight="1">
-      <c r="A42" s="44" t="s">
+      <c r="A42" s="38" t="s">
         <v>34</v>
       </c>
       <c r="B42" s="23">
@@ -2387,7 +2368,7 @@
       <c r="C42" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="63"/>
+      <c r="D42" s="26"/>
       <c r="E42" s="2" t="s">
         <v>12</v>
       </c>
@@ -2407,14 +2388,14 @@
       <c r="K42" s="3"/>
     </row>
     <row r="43" spans="1:11" ht="40.5" customHeight="1">
-      <c r="A43" s="44"/>
+      <c r="A43" s="38"/>
       <c r="B43" s="23">
         <v>38</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D43" s="63"/>
+      <c r="D43" s="26"/>
       <c r="E43" s="2" t="s">
         <v>13</v>
       </c>
@@ -2488,11 +2469,8 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A4:A29"/>
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="G2:G3"/>
@@ -2501,17 +2479,22 @@
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:K3"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="A30:A37"/>
-    <mergeCell ref="K5:K6"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="F13:F14"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A4:A29"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K5:K6"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="I13:I14"/>
@@ -2520,8 +2503,6 @@
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
